--- a/ESTANCIA_VELHA.xlsx
+++ b/ESTANCIA_VELHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C0F5AEE-0991-4EA9-8BE9-A3D1E4A88953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C79933D-B317-4338-B2FE-A229AA010863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,20 +22,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1163,7 +1150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1224,30 +1211,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1265,7 +1228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1299,18 +1262,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1360,7 +1318,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D18D895E-9F43-404B-980E-1053603E1E6E}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{D170DC8F-59A6-4AA0-989D-C78EF283D244}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1390,10 +1348,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3616F2E-DE2F-4E7F-A67F-38273B09DAA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A5A24B-038D-4DB3-B465-731B0A385C50}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1431,7 +1389,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719D3981-02EB-4253-A849-B0F4B3EA29AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41466046-55D2-450B-BF79-FC1E36E5B155}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1452,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A922C2-2BC1-49FA-B18A-02CDA670A5FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2034FCA4-0E94-4086-93FE-5489928699C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1471,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71172975-462E-1B20-A459-AC558147DD23}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9BC917-66E1-AA05-6409-E0C055B4A172}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1562,7 +1520,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6ED86E-2F72-5153-7FAE-F6718FB19512}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B982030-0F93-F996-BA56-4309471DD70C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1581,7 +1539,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8A6F1E-BD4F-8273-9CF3-883287250CD5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FF5F70-2352-FA60-A2BC-0DC37901B87F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1612,7 +1570,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2A99D8-ADBA-44C5-ABA1-C36C7B50CEE5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A63DA0-6B6B-C570-083F-4FF781FD5460}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1643,7 +1601,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE96D1D9-DBB8-5512-07DC-9DEB7AF9D541}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB95583-C50D-2A3E-8F23-5BD9FAA672F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1686,7 +1644,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179BAC0A-24B4-4B85-B43A-22582709A5C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3530DB-2E59-41C3-9DBA-5B297962D744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1682,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4478F72-96B7-4716-ADB6-72071B3DF447}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47A2D22-8AD8-4A81-960A-29951E879B89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1767,7 +1725,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB73459D-13DC-4790-8EEB-3A3F8DC30B31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A70D21-0D0D-4D26-B1F3-8599C67C35B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,7 +2038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D10F8B8-D40A-45B1-A0CE-553666D139B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBBA1A5-1902-48D9-9448-491F9A282A5E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2092,98 +2050,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="40"/>
-    <col min="6" max="6" width="2" style="40" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="40" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="40"/>
+    <col min="1" max="5" width="12.5703125" style="37"/>
+    <col min="6" max="6" width="2" style="37" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="39"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="39"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="39"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="39"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="39"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="39"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="39"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="39"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="39"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="39"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="39"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="39"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="39"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="39"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="39"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="39"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="39"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="39"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="39"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="39"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="39"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="39"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="39"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="39"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="39"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="39"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="39"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="39"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="39"/>
+      <c r="F29" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5330,19 +5288,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5376,1674 +5334,1674 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>203289</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="18">
         <v>18.68</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="18">
         <v>186.8</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="14">
         <v>203</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>433195</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <v>34.9</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <v>349</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="14">
         <v>203</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>433202</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <v>34.9</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="18">
         <v>349</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="14">
         <v>203</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>433203</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <v>34.9</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <v>349</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="14">
         <v>203</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>433211</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <v>34.9</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <v>349</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="14">
         <v>203</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>461193</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="18">
         <v>2105.84</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="18">
         <v>3539</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="14">
         <v>203</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>461194</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="18">
         <v>2105.84</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <v>3539</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="14">
         <v>203</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>461195</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="18">
         <v>2105.84</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="18">
         <v>3539</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="14">
         <v>203</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>461196</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="18">
         <v>2105.84</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="18">
         <v>3539</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="14">
         <v>203</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>461197</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="18">
         <v>2105.84</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="18">
         <v>3539</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="14">
         <v>203</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>461198</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="18">
         <v>2105.84</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <v>3539</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="14">
         <v>203</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>461199</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <v>648.09</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <v>1089</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="14">
         <v>203</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>461200</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>648.09</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="18">
         <v>1089</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="14">
         <v>203</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>461301</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <v>648.09</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="18">
         <v>1089</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="14">
         <v>203</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="17">
         <v>461302</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="18">
         <v>648.09</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="18">
         <v>1089</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="14">
         <v>203</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="17">
         <v>461303</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="18">
         <v>648.09</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="18">
         <v>1089</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="14">
         <v>203</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="17">
         <v>461304</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="18">
         <v>648.09</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <v>1089</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="14">
         <v>203</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="17">
         <v>461305</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="18">
         <v>511.24</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="18">
         <v>859</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="14">
         <v>203</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="17">
         <v>461306</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="18">
         <v>511.24</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="18">
         <v>859</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="14">
         <v>203</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="17">
         <v>461307</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="18">
         <v>511.24</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="18">
         <v>859</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="14">
         <v>203</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="17">
         <v>461308</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="18">
         <v>511.24</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="18">
         <v>859</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="14">
         <v>203</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="17">
         <v>461309</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="18">
         <v>511.24</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="18">
         <v>859</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="14">
         <v>203</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="17">
         <v>461310</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="18">
         <v>2017.08</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="18">
         <v>2529</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="14">
         <v>203</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="17">
         <v>461311</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="18">
         <v>1422.05</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="18">
         <v>2390</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="14">
         <v>203</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="17">
         <v>461312</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="18">
         <v>5777.45</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="18">
         <v>9710</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="14">
         <v>203</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="17">
         <v>461313</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="18">
         <v>433.89</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="18">
         <v>729</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="14">
         <v>203</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="N27" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="17">
         <v>461314</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="18">
         <v>1289.5</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="18">
         <v>2167</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="14">
         <v>203</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="17">
         <v>461315</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="18">
         <v>310.27999999999997</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="18">
         <v>521.15</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="14">
         <v>203</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="17">
         <v>461316</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="18">
         <v>310.27999999999997</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="18">
         <v>521.15</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="14">
         <v>203</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="17">
         <v>461317</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="18">
         <v>310.27999999999997</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="18">
         <v>521.15</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="14">
         <v>203</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="17">
         <v>461318</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="18">
         <v>310.27999999999997</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="18">
         <v>521.15</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="14">
         <v>203</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="17">
         <v>461319</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="18">
         <v>310.27999999999997</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="18">
         <v>521.15</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="14">
         <v>203</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M33" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="17">
         <v>461948</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="18">
         <v>2076.5500000000002</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="18">
         <v>3490</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="14">
         <v>203</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="17">
         <v>461949</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="18">
         <v>13317.29</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="18">
         <v>22382</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="14">
         <v>203</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="N35" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="17">
         <v>459025</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="18">
         <v>694.88</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="18">
         <v>789.6</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="14">
         <v>203</v>
       </c>
-      <c r="L36" s="19" t="s">
+      <c r="L36" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N36" s="19" t="s">
+      <c r="N36" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="17">
         <v>459034</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="18">
         <v>980.4</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="18">
         <v>1290</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="I37" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="14">
         <v>203</v>
       </c>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M37" s="19" t="s">
+      <c r="M37" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N37" s="19" t="s">
+      <c r="N37" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="17">
         <v>459294</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="18">
         <v>6283.05</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="18">
         <v>6579.06</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="14">
         <v>203</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="M38" s="19" t="s">
+      <c r="M38" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="N38" s="19" t="s">
+      <c r="N38" s="14" t="s">
         <v>282</v>
       </c>
     </row>
@@ -7061,22 +7019,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" customWidth="1"/>
+    <col min="2" max="2" width="74.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>273</v>
       </c>
     </row>
@@ -7099,46 +7057,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="21" t="s">
         <v>309</v>
       </c>
     </row>
@@ -7163,101 +7121,102 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="22" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="25">
         <v>45231</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="26">
         <v>2680</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="27">
         <v>10532</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="27">
         <v>1173</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="29" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7282,31 +7241,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="35">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="32">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="35">
         <v>137</v>
       </c>
-      <c r="F1" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="38">
-        <v>137</v>
-      </c>
-      <c r="C2" s="36">
+      <c r="C2" s="33">
         <v>9.0596481946832435E-3</v>
       </c>
     </row>

--- a/ESTANCIA_VELHA.xlsx
+++ b/ESTANCIA_VELHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C79933D-B317-4338-B2FE-A229AA010863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF38F33-821A-4CBF-BA84-8A74D899AC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1318,7 +1318,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D170DC8F-59A6-4AA0-989D-C78EF283D244}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{74D7382B-995C-4955-91B1-2D2E9E37D7D9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1348,10 +1348,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A5A24B-038D-4DB3-B465-731B0A385C50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3810C2AC-F315-4226-BEE9-E1D523C46732}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1389,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41466046-55D2-450B-BF79-FC1E36E5B155}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9656CD-7613-4E65-AF0D-F3FFF4F0DCC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1452,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2034FCA4-0E94-4086-93FE-5489928699C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4720B46F-F7B0-4B32-8D8C-3E89959DB9DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9BC917-66E1-AA05-6409-E0C055B4A172}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAB850E-FCF4-E4F1-0877-9678ECAA6C9E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1520,7 +1520,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B982030-0F93-F996-BA56-4309471DD70C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5442903A-6127-BFA1-7FDB-64C4414F70E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1539,7 +1539,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FF5F70-2352-FA60-A2BC-0DC37901B87F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3ED80D-4431-2649-A5D7-4936461F55E7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1570,7 +1570,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A63DA0-6B6B-C570-083F-4FF781FD5460}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7BFD14A-75B0-EF8E-264E-839AEB79719B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1601,7 +1601,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB95583-C50D-2A3E-8F23-5BD9FAA672F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93A3796-19F6-4CD7-EB98-D5C2894A1712}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1644,7 +1644,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3530DB-2E59-41C3-9DBA-5B297962D744}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A703DDE3-255B-4140-96A1-B62A18C73539}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1682,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47A2D22-8AD8-4A81-960A-29951E879B89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8ADDD02-09EA-4C21-A39C-33F66C0B59FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1725,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A70D21-0D0D-4D26-B1F3-8599C67C35B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C130EDA-AAC8-4726-9A73-6CDD98C94308}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBBA1A5-1902-48D9-9448-491F9A282A5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA7DF3E-6A36-4976-8555-AD4C9848D483}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/ESTANCIA_VELHA.xlsx
+++ b/ESTANCIA_VELHA.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF38F33-821A-4CBF-BA84-8A74D899AC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE760A0-6D74-4C26-87AC-CD11501559B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="BENS-INTERINOS" sheetId="3" r:id="rId4"/>
     <sheet name="TABELIÕES-DOAÇÃO" sheetId="4" r:id="rId5"/>
     <sheet name="CPIP" sheetId="5" r:id="rId6"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="332">
   <si>
     <t>Número</t>
   </si>
@@ -1023,12 +1022,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1295,30 +1288,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{74D7382B-995C-4955-91B1-2D2E9E37D7D9}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{6BD331C2-A621-4442-91B2-AD611DA8F2DD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1348,10 +1323,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3810C2AC-F315-4226-BEE9-E1D523C46732}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C1D631-9A35-41FC-BD53-BDBABFEB63FB}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1364,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9656CD-7613-4E65-AF0D-F3FFF4F0DCC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBFC8F6-599C-4315-8926-9E0F29140AED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1427,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4720B46F-F7B0-4B32-8D8C-3E89959DB9DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF99F4D5-54FA-4328-88A7-D3B447DE6FCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1446,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAB850E-FCF4-E4F1-0877-9678ECAA6C9E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3192962B-8091-4268-8653-A9334B46AD75}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1520,7 +1495,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5442903A-6127-BFA1-7FDB-64C4414F70E2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBEB023-65EF-A4F8-945D-012C5D8ECDA6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1539,7 +1514,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3ED80D-4431-2649-A5D7-4936461F55E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87ED81A7-69D9-793E-7276-7D9F0AAF5C94}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1570,7 +1545,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7BFD14A-75B0-EF8E-264E-839AEB79719B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D9E039-1709-954E-258F-3DE051FCC811}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1601,7 +1576,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93A3796-19F6-4CD7-EB98-D5C2894A1712}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7212F30-2D0F-C6D6-935B-2853D0180D7F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1644,7 +1619,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A703DDE3-255B-4140-96A1-B62A18C73539}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0943044-53FA-408C-A2EF-81E8538FC4F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1657,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8ADDD02-09EA-4C21-A39C-33F66C0B59FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E31E33-B25A-4CF2-BD9D-CFFF29250E93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1700,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C130EDA-AAC8-4726-9A73-6CDD98C94308}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD91AB7B-B345-4DDA-A493-9C449BD9A0F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA7DF3E-6A36-4976-8555-AD4C9848D483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED079CA-FB3B-4018-818A-91A87D2367FA}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2050,98 +2025,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="31"/>
+    <col min="6" max="6" width="2" style="31" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7223,52 +7198,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="E1" s="32">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="35">
-        <v>137</v>
-      </c>
-      <c r="C2" s="33">
-        <v>9.0596481946832435E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/ESTANCIA_VELHA.xlsx
+++ b/ESTANCIA_VELHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE760A0-6D74-4C26-87AC-CD11501559B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82933DFA-9FD3-4E3E-AC02-5B32FB0BC6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1293,7 +1293,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6BD331C2-A621-4442-91B2-AD611DA8F2DD}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{CD8D7D49-E89F-41FB-AE5B-A5761C24E6D7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1323,10 +1323,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C1D631-9A35-41FC-BD53-BDBABFEB63FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDD2756-3B25-48BE-9B9B-70754015AEA9}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1364,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBFC8F6-599C-4315-8926-9E0F29140AED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7DCF83-001A-46D1-A5BE-C3BAC4E0708E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1427,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF99F4D5-54FA-4328-88A7-D3B447DE6FCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D1FA3B-135E-4DA1-B97B-035E3F0E4688}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1446,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3192962B-8091-4268-8653-A9334B46AD75}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3630080-BAE6-30B1-7507-9B76790FE875}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1495,7 +1495,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBEB023-65EF-A4F8-945D-012C5D8ECDA6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1876ED5-387B-90F2-13DF-63580DD260F0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1514,7 +1514,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87ED81A7-69D9-793E-7276-7D9F0AAF5C94}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71ACDDFF-A3D6-B5FB-BEA2-DFC4CF49B2ED}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1545,7 +1545,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D9E039-1709-954E-258F-3DE051FCC811}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37775232-4600-8DB5-54F6-2381DB1B5EC6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1576,7 +1576,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7212F30-2D0F-C6D6-935B-2853D0180D7F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF092F33-9FA9-8E77-2759-39E40A6028C3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1619,7 +1619,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0943044-53FA-408C-A2EF-81E8538FC4F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B968F455-51A1-410B-969E-F955CBEA1A04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1657,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E31E33-B25A-4CF2-BD9D-CFFF29250E93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA92E1F0-6BBA-4DF7-B5BA-2376DC0251B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,50 +1682,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD91AB7B-B345-4DDA-A493-9C449BD9A0F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2013,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED079CA-FB3B-4018-818A-91A87D2367FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A846AF76-D3F1-4F89-BD87-5A36F80F91E4}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/ESTANCIA_VELHA.xlsx
+++ b/ESTANCIA_VELHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82933DFA-9FD3-4E3E-AC02-5B32FB0BC6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCAF7609-1DC8-4485-BF3C-A56C66D8FC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1035,14 +1035,6 @@
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1070,6 +1062,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1155,21 +1155,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1204,6 +1189,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1223,77 +1223,77 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CD8D7D49-E89F-41FB-AE5B-A5761C24E6D7}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{8762B4C6-3A5D-43ED-ABAB-7A4CC6B0E31F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1323,7 +1323,7 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDD2756-3B25-48BE-9B9B-70754015AEA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A08626-03A5-455F-AF82-29CE212126BE}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
               <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
@@ -1364,7 +1364,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7DCF83-001A-46D1-A5BE-C3BAC4E0708E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496A6B1E-0EF8-4C59-B884-3F0DA29A4B4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1427,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D1FA3B-135E-4DA1-B97B-035E3F0E4688}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823068CE-9FD3-41CC-8E9B-0653C924927B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1446,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3630080-BAE6-30B1-7507-9B76790FE875}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF71735-DA86-E697-7EE3-108B157CE5B7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1495,7 +1495,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1876ED5-387B-90F2-13DF-63580DD260F0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4067BC6F-0BFE-C9B2-E2C6-10D26AE10B9A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1514,7 +1514,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71ACDDFF-A3D6-B5FB-BEA2-DFC4CF49B2ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9577A0A1-AE66-0217-5E35-ADB230A8F1C6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1545,7 +1545,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37775232-4600-8DB5-54F6-2381DB1B5EC6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C5C076-CCF5-3029-3EBD-ACC0549A7972}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1576,7 +1576,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF092F33-9FA9-8E77-2759-39E40A6028C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45C6D1C-49DC-5090-5D4D-9FB18CB7C736}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1619,7 +1619,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B968F455-51A1-410B-969E-F955CBEA1A04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0BD0FE-9659-4507-957F-F1A7850C892F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1657,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA92E1F0-6BBA-4DF7-B5BA-2376DC0251B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD00BEC-5F5C-4395-B095-86E68039F5A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A846AF76-D3F1-4F89-BD87-5A36F80F91E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA16217E-C11C-4A99-90FE-74E84A190730}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
